--- a/deployment/v3/utils/onboard/machine/xlsx/spec.xlsx
+++ b/deployment/v3/utils/onboard/machine/xlsx/spec.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">min_driver_version</t>
   </si>
   <si>
-    <t xml:space="preserve">language</t>
-  </si>
-  <si>
     <t xml:space="preserve">HighEnd</t>
   </si>
   <si>
@@ -59,15 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinateur portable d'enregistrement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
   </si>
 </sst>
 </file>
@@ -191,22 +179,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ20"/>
+  <dimension ref="A1:AMJ19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="16.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="8" style="2" width="11.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="7" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="1023" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,56 +215,36 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AMJ1" s="2"/>
+      <c r="AMI1" s="2"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
@@ -406,14 +373,6 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
